--- a/！计划.xlsx
+++ b/！计划.xlsx
@@ -36,10 +36,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>原型细化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>星期一</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -85,6 +81,10 @@
   <si>
     <t>gc：数据库设计100%。云端基础框架20%
 cky：详细需求文档100%。原型设计细化20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原型细化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -93,7 +93,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -198,27 +198,21 @@
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -226,6 +220,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -533,734 +533,734 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="4.109375" style="17" customWidth="1"/>
-    <col min="3" max="3" width="42.21875" style="11" customWidth="1"/>
-    <col min="4" max="8" width="11.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="16" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="4.109375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="42.21875" style="9" customWidth="1"/>
+    <col min="4" max="8" width="11.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="14" customWidth="1"/>
     <col min="11" max="11" width="5.109375" customWidth="1"/>
     <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="16" t="s">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="13">
+        <v>41939</v>
+      </c>
+      <c r="E2" s="13">
+        <v>41940</v>
+      </c>
+      <c r="F2" s="13">
+        <v>41941</v>
+      </c>
+      <c r="G2" s="13">
+        <v>41942</v>
+      </c>
+      <c r="H2" s="13">
+        <v>41943</v>
+      </c>
+      <c r="I2" s="13">
+        <v>41944</v>
+      </c>
+      <c r="J2" s="13">
+        <v>41945</v>
+      </c>
+      <c r="K2" s="11"/>
+      <c r="L2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="C3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="I3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="15">
-        <v>41939</v>
-      </c>
-      <c r="E2" s="15">
-        <v>41940</v>
-      </c>
-      <c r="F2" s="15">
-        <v>41941</v>
-      </c>
-      <c r="G2" s="15">
-        <v>41942</v>
-      </c>
-      <c r="H2" s="15">
-        <v>41943</v>
-      </c>
-      <c r="I2" s="15">
-        <v>41944</v>
-      </c>
-      <c r="J2" s="15">
-        <v>41945</v>
-      </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="5" t="s">
+      <c r="K3" s="11"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="18"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D4" s="13">
+        <v>41946</v>
+      </c>
+      <c r="E4" s="13">
+        <v>41947</v>
+      </c>
+      <c r="F4" s="13">
+        <v>41948</v>
+      </c>
+      <c r="G4" s="13">
+        <v>41949</v>
+      </c>
+      <c r="H4" s="13">
+        <v>41950</v>
+      </c>
+      <c r="I4" s="13">
+        <v>41951</v>
+      </c>
+      <c r="J4" s="13">
+        <v>41952</v>
+      </c>
+      <c r="K4" s="11"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="18"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="18"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D6" s="13">
+        <v>41953</v>
+      </c>
+      <c r="E6" s="13">
+        <v>41954</v>
+      </c>
+      <c r="F6" s="13">
+        <v>41955</v>
+      </c>
+      <c r="G6" s="13">
+        <v>41956</v>
+      </c>
+      <c r="H6" s="13">
+        <v>41957</v>
+      </c>
+      <c r="I6" s="13">
+        <v>41958</v>
+      </c>
+      <c r="J6" s="13">
+        <v>41959</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="18"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="18"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D8" s="13">
+        <v>41960</v>
+      </c>
+      <c r="E8" s="13">
+        <v>41961</v>
+      </c>
+      <c r="F8" s="13">
+        <v>41962</v>
+      </c>
+      <c r="G8" s="13">
+        <v>41963</v>
+      </c>
+      <c r="H8" s="13">
+        <v>41964</v>
+      </c>
+      <c r="I8" s="13">
+        <v>41965</v>
+      </c>
+      <c r="J8" s="13">
+        <v>41966</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="18"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="18"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D10" s="13">
+        <v>41967</v>
+      </c>
+      <c r="E10" s="13">
+        <v>41968</v>
+      </c>
+      <c r="F10" s="13">
+        <v>41969</v>
+      </c>
+      <c r="G10" s="13">
+        <v>41970</v>
+      </c>
+      <c r="H10" s="13">
+        <v>41971</v>
+      </c>
+      <c r="I10" s="13">
+        <v>41972</v>
+      </c>
+      <c r="J10" s="13">
+        <v>41973</v>
+      </c>
+      <c r="K10" s="16"/>
+      <c r="L10" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="C3" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="I3" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="6"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D4" s="15">
-        <v>41946</v>
-      </c>
-      <c r="E4" s="15">
-        <v>41947</v>
-      </c>
-      <c r="F4" s="15">
-        <v>41948</v>
-      </c>
-      <c r="G4" s="15">
-        <v>41949</v>
-      </c>
-      <c r="H4" s="15">
-        <v>41950</v>
-      </c>
-      <c r="I4" s="15">
-        <v>41951</v>
-      </c>
-      <c r="J4" s="15">
-        <v>41952</v>
-      </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="6"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D6" s="15">
-        <v>41953</v>
-      </c>
-      <c r="E6" s="15">
-        <v>41954</v>
-      </c>
-      <c r="F6" s="15">
-        <v>41955</v>
-      </c>
-      <c r="G6" s="15">
-        <v>41956</v>
-      </c>
-      <c r="H6" s="15">
-        <v>41957</v>
-      </c>
-      <c r="I6" s="15">
-        <v>41958</v>
-      </c>
-      <c r="J6" s="15">
-        <v>41959</v>
-      </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="6"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D8" s="15">
-        <v>41960</v>
-      </c>
-      <c r="E8" s="15">
-        <v>41961</v>
-      </c>
-      <c r="F8" s="15">
-        <v>41962</v>
-      </c>
-      <c r="G8" s="15">
-        <v>41963</v>
-      </c>
-      <c r="H8" s="15">
-        <v>41964</v>
-      </c>
-      <c r="I8" s="15">
-        <v>41965</v>
-      </c>
-      <c r="J8" s="15">
-        <v>41966</v>
-      </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="6"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="6"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D10" s="15">
-        <v>41967</v>
-      </c>
-      <c r="E10" s="15">
-        <v>41968</v>
-      </c>
-      <c r="F10" s="15">
-        <v>41969</v>
-      </c>
-      <c r="G10" s="15">
-        <v>41970</v>
-      </c>
-      <c r="H10" s="15">
-        <v>41971</v>
-      </c>
-      <c r="I10" s="15">
-        <v>41972</v>
-      </c>
-      <c r="J10" s="15">
-        <v>41973</v>
-      </c>
-      <c r="K10" s="18"/>
-      <c r="L10" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="M10" s="4"/>
-      <c r="N10" s="6"/>
+      <c r="N10" s="18"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="6"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="18"/>
       <c r="M11" s="4"/>
-      <c r="N11" s="6"/>
+      <c r="N11" s="18"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D12" s="15">
+      <c r="D12" s="13">
         <v>41974</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="13">
         <v>41975</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="13">
         <v>41976</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="13">
         <v>41977</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="13">
         <v>41978</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="13">
         <v>41979</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="13">
         <v>41980</v>
       </c>
-      <c r="K12" s="12"/>
-      <c r="L12" s="6"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="18"/>
       <c r="M12" s="4"/>
-      <c r="N12" s="6"/>
+      <c r="N12" s="18"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="6"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="18"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="6"/>
+      <c r="N13" s="18"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D14" s="15">
+      <c r="D14" s="13">
         <v>41981</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="13">
         <v>41982</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="13">
         <v>41983</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="13">
         <v>41984</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="13">
         <v>41985</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="13">
         <v>41986</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="13">
         <v>41987</v>
       </c>
-      <c r="K14" s="12"/>
-      <c r="L14" s="6"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="18"/>
       <c r="M14" s="4"/>
-      <c r="N14" s="6"/>
+      <c r="N14" s="18"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="6"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="18"/>
       <c r="M15" s="4"/>
-      <c r="N15" s="6"/>
+      <c r="N15" s="18"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D16" s="15">
+      <c r="D16" s="13">
         <v>41988</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="13">
         <v>41989</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="13">
         <v>41990</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="13">
         <v>41991</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="13">
         <v>41992</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I16" s="13">
         <v>41993</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J16" s="13">
         <v>41994</v>
       </c>
-      <c r="K16" s="12"/>
-      <c r="L16" s="6"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="18"/>
       <c r="M16" s="4"/>
-      <c r="N16" s="6"/>
+      <c r="N16" s="18"/>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="6"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="18"/>
       <c r="M17" s="4"/>
-      <c r="N17" s="6"/>
+      <c r="N17" s="18"/>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D18" s="15">
+      <c r="D18" s="13">
         <v>41995</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="13">
         <v>41996</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="13">
         <v>41997</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="13">
         <v>41998</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="13">
         <v>41999</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I18" s="13">
         <v>42000</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="13">
         <v>42001</v>
       </c>
-      <c r="K18" s="12"/>
-      <c r="L18" s="6"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="18"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="6"/>
+      <c r="N18" s="18"/>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="6"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="18"/>
       <c r="M19" s="4"/>
-      <c r="N19" s="6"/>
+      <c r="N19" s="18"/>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D20" s="15">
+      <c r="D20" s="13">
         <v>42002</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="13">
         <v>42003</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="13">
         <v>42004</v>
       </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="6"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="18"/>
       <c r="M20" s="4"/>
-      <c r="N20" s="6"/>
+      <c r="N20" s="18"/>
     </row>
     <row r="21" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15">
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13">
         <v>42005</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="13">
         <v>42006</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="13">
         <v>42007</v>
       </c>
-      <c r="J21" s="15">
+      <c r="J21" s="13">
         <v>42008</v>
       </c>
       <c r="K21" s="1"/>
       <c r="M21" s="2"/>
-      <c r="N21" s="6" t="s">
+      <c r="N21" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
       <c r="K22" s="1"/>
       <c r="M22" s="2"/>
-      <c r="N22" s="6"/>
+      <c r="N22" s="18"/>
     </row>
     <row r="23" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D23" s="15">
+      <c r="D23" s="13">
         <v>42009</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="13">
         <v>42010</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="13">
         <v>42011</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="13">
         <v>42012</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="13">
         <v>42013</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I23" s="13">
         <v>42014</v>
       </c>
-      <c r="J23" s="15">
+      <c r="J23" s="13">
         <v>42015</v>
       </c>
       <c r="K23" s="1"/>
       <c r="M23" s="2"/>
-      <c r="N23" s="6"/>
+      <c r="N23" s="18"/>
     </row>
     <row r="24" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
       <c r="K24" s="1"/>
       <c r="M24" s="2"/>
-      <c r="N24" s="6"/>
+      <c r="N24" s="18"/>
     </row>
     <row r="25" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D25" s="15">
+      <c r="D25" s="13">
         <v>42016</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="13">
         <v>42017</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="13">
         <v>42018</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="13">
         <v>42019</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H25" s="13">
         <v>42020</v>
       </c>
-      <c r="I25" s="15">
+      <c r="I25" s="13">
         <v>42021</v>
       </c>
-      <c r="J25" s="15">
+      <c r="J25" s="13">
         <v>42022</v>
       </c>
       <c r="K25" s="1"/>
       <c r="M25" s="2"/>
-      <c r="N25" s="6"/>
+      <c r="N25" s="18"/>
     </row>
     <row r="26" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
       <c r="K26" s="1"/>
       <c r="M26" s="2"/>
-      <c r="N26" s="6"/>
+      <c r="N26" s="18"/>
     </row>
     <row r="27" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D27" s="15">
+      <c r="D27" s="13">
         <v>42023</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="13">
         <v>42024</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27" s="13">
         <v>42025</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G27" s="13">
         <v>42026</v>
       </c>
-      <c r="H27" s="15">
+      <c r="H27" s="13">
         <v>42027</v>
       </c>
-      <c r="I27" s="15">
+      <c r="I27" s="13">
         <v>42028</v>
       </c>
-      <c r="J27" s="15">
+      <c r="J27" s="13">
         <v>42029</v>
       </c>
       <c r="K27" s="1"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="6" t="s">
+      <c r="M27" s="5"/>
+      <c r="N27" s="18" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
       <c r="K28" s="1"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="6"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="18"/>
     </row>
     <row r="29" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D29" s="15">
+      <c r="D29" s="13">
         <v>42030</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="13">
         <v>42031</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29" s="13">
         <v>42032</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G29" s="13">
         <v>42033</v>
       </c>
-      <c r="H29" s="15">
+      <c r="H29" s="13">
         <v>42034</v>
       </c>
-      <c r="I29" s="15">
+      <c r="I29" s="13">
         <v>42035</v>
       </c>
-      <c r="J29" s="15">
+      <c r="J29" s="13">
         <v>42036</v>
       </c>
       <c r="K29" s="1"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="6"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="18"/>
     </row>
     <row r="30" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
       <c r="K30" s="1"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="6"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="18"/>
     </row>
     <row r="31" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D31" s="15">
+      <c r="D31" s="13">
         <v>42037</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="13">
         <v>42038</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F31" s="13">
         <v>42039</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G31" s="13">
         <v>42040</v>
       </c>
-      <c r="H31" s="15">
+      <c r="H31" s="13">
         <v>42041</v>
       </c>
-      <c r="I31" s="15">
+      <c r="I31" s="13">
         <v>42042</v>
       </c>
-      <c r="J31" s="15">
+      <c r="J31" s="13">
         <v>42043</v>
       </c>
       <c r="K31" s="1"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="6"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="18"/>
     </row>
     <row r="32" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
       <c r="K32" s="1"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="6"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="18"/>
     </row>
     <row r="33" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D33" s="15">
+      <c r="D33" s="13">
         <v>42044</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="13">
         <v>42045</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F33" s="13">
         <v>42046</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G33" s="13">
         <v>42047</v>
       </c>
-      <c r="H33" s="15">
+      <c r="H33" s="13">
         <v>42048</v>
       </c>
-      <c r="I33" s="15">
+      <c r="I33" s="13">
         <v>42049</v>
       </c>
-      <c r="J33" s="15">
+      <c r="J33" s="13">
         <v>42050</v>
       </c>
       <c r="K33" s="1"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="6"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="18"/>
     </row>
     <row r="34" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
       <c r="K34" s="1"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="6"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="18"/>
     </row>
     <row r="35" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D35" s="15">
+      <c r="D35" s="13">
         <v>42051</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="13">
         <v>42052</v>
       </c>
-      <c r="F35" s="15">
+      <c r="F35" s="13">
         <v>42053</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G35" s="13">
         <v>42054</v>
       </c>
-      <c r="H35" s="15">
+      <c r="H35" s="13">
         <v>42055</v>
       </c>
-      <c r="I35" s="15">
+      <c r="I35" s="13">
         <v>42056</v>
       </c>
-      <c r="J35" s="15">
+      <c r="J35" s="13">
         <v>42057</v>
       </c>
       <c r="K35" s="1"/>

--- a/！计划.xlsx
+++ b/！计划.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>完成第一阶段全部功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,14 +56,6 @@
   </si>
   <si>
     <t>星期日</t>
-  </si>
-  <si>
-    <t>讨论数据库设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>讨论需求文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>取名字</t>
@@ -79,12 +71,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gc：数据库设计100%。云端基础框架20%
-cky：详细需求文档100%。原型设计细化20%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>原型细化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论需求文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论数据库设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细需求文档100%。原型设计细化20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cky：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gc：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库设计100%。云端基础框架20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3h 了解ssh登录服务器、写需求文档初步+讨论wih gc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iphone各个应用（无秘（友秘）、微博、糗百等）的各个界面的截图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -95,7 +114,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +162,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -196,35 +222,70 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -530,748 +591,775 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" style="15" customWidth="1"/>
-    <col min="2" max="2" width="4.109375" style="15" customWidth="1"/>
-    <col min="3" max="3" width="42.21875" style="9" customWidth="1"/>
-    <col min="4" max="8" width="11.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="14" customWidth="1"/>
-    <col min="11" max="11" width="5.109375" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="5.5546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="42.21875" style="14" customWidth="1"/>
+    <col min="4" max="8" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="5.109375" style="5" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.33203125" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8">
+        <v>41939</v>
+      </c>
+      <c r="E2" s="8">
+        <v>41940</v>
+      </c>
+      <c r="F2" s="8">
+        <v>41941</v>
+      </c>
+      <c r="G2" s="8">
+        <v>41942</v>
+      </c>
+      <c r="H2" s="8">
+        <v>41943</v>
+      </c>
+      <c r="I2" s="8">
+        <v>41944</v>
+      </c>
+      <c r="J2" s="8">
+        <v>41945</v>
+      </c>
+      <c r="K2" s="9"/>
+      <c r="L2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="11"/>
+      <c r="N2" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="72" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="10"/>
+    </row>
+    <row r="4" spans="1:14" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="9"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="13"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D5" s="8">
+        <v>41946</v>
+      </c>
+      <c r="E5" s="8">
+        <v>41947</v>
+      </c>
+      <c r="F5" s="8">
+        <v>41948</v>
+      </c>
+      <c r="G5" s="8">
+        <v>41949</v>
+      </c>
+      <c r="H5" s="8">
+        <v>41950</v>
+      </c>
+      <c r="I5" s="8">
+        <v>41951</v>
+      </c>
+      <c r="J5" s="8">
+        <v>41952</v>
+      </c>
+      <c r="K5" s="9"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="13"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="13"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D7" s="8">
+        <v>41953</v>
+      </c>
+      <c r="E7" s="8">
+        <v>41954</v>
+      </c>
+      <c r="F7" s="8">
+        <v>41955</v>
+      </c>
+      <c r="G7" s="8">
+        <v>41956</v>
+      </c>
+      <c r="H7" s="8">
+        <v>41957</v>
+      </c>
+      <c r="I7" s="8">
+        <v>41958</v>
+      </c>
+      <c r="J7" s="8">
+        <v>41959</v>
+      </c>
+      <c r="K7" s="9"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="13"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="13"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D9" s="8">
+        <v>41960</v>
+      </c>
+      <c r="E9" s="8">
+        <v>41961</v>
+      </c>
+      <c r="F9" s="8">
+        <v>41962</v>
+      </c>
+      <c r="G9" s="8">
+        <v>41963</v>
+      </c>
+      <c r="H9" s="8">
+        <v>41964</v>
+      </c>
+      <c r="I9" s="8">
+        <v>41965</v>
+      </c>
+      <c r="J9" s="8">
+        <v>41966</v>
+      </c>
+      <c r="K9" s="9"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="13"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="13"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D11" s="8">
+        <v>41967</v>
+      </c>
+      <c r="E11" s="8">
+        <v>41968</v>
+      </c>
+      <c r="F11" s="8">
+        <v>41969</v>
+      </c>
+      <c r="G11" s="8">
+        <v>41970</v>
+      </c>
+      <c r="H11" s="8">
+        <v>41971</v>
+      </c>
+      <c r="I11" s="8">
+        <v>41972</v>
+      </c>
+      <c r="J11" s="8">
+        <v>41973</v>
+      </c>
+      <c r="K11" s="16"/>
+      <c r="L11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="13">
-        <v>41939</v>
-      </c>
-      <c r="E2" s="13">
-        <v>41940</v>
-      </c>
-      <c r="F2" s="13">
-        <v>41941</v>
-      </c>
-      <c r="G2" s="13">
-        <v>41942</v>
-      </c>
-      <c r="H2" s="13">
-        <v>41943</v>
-      </c>
-      <c r="I2" s="13">
-        <v>41944</v>
-      </c>
-      <c r="J2" s="13">
-        <v>41945</v>
-      </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="C3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="I3" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="18"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D4" s="13">
-        <v>41946</v>
-      </c>
-      <c r="E4" s="13">
-        <v>41947</v>
-      </c>
-      <c r="F4" s="13">
-        <v>41948</v>
-      </c>
-      <c r="G4" s="13">
-        <v>41949</v>
-      </c>
-      <c r="H4" s="13">
-        <v>41950</v>
-      </c>
-      <c r="I4" s="13">
-        <v>41951</v>
-      </c>
-      <c r="J4" s="13">
-        <v>41952</v>
-      </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="18"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="18"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D6" s="13">
-        <v>41953</v>
-      </c>
-      <c r="E6" s="13">
-        <v>41954</v>
-      </c>
-      <c r="F6" s="13">
-        <v>41955</v>
-      </c>
-      <c r="G6" s="13">
-        <v>41956</v>
-      </c>
-      <c r="H6" s="13">
-        <v>41957</v>
-      </c>
-      <c r="I6" s="13">
-        <v>41958</v>
-      </c>
-      <c r="J6" s="13">
-        <v>41959</v>
-      </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="18"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="18"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D8" s="13">
-        <v>41960</v>
-      </c>
-      <c r="E8" s="13">
-        <v>41961</v>
-      </c>
-      <c r="F8" s="13">
-        <v>41962</v>
-      </c>
-      <c r="G8" s="13">
-        <v>41963</v>
-      </c>
-      <c r="H8" s="13">
-        <v>41964</v>
-      </c>
-      <c r="I8" s="13">
-        <v>41965</v>
-      </c>
-      <c r="J8" s="13">
-        <v>41966</v>
-      </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="18"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="18"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D10" s="13">
-        <v>41967</v>
-      </c>
-      <c r="E10" s="13">
-        <v>41968</v>
-      </c>
-      <c r="F10" s="13">
-        <v>41969</v>
-      </c>
-      <c r="G10" s="13">
-        <v>41970</v>
-      </c>
-      <c r="H10" s="13">
-        <v>41971</v>
-      </c>
-      <c r="I10" s="13">
-        <v>41972</v>
-      </c>
-      <c r="J10" s="13">
-        <v>41973</v>
-      </c>
-      <c r="K10" s="16"/>
-      <c r="L10" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="18"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="18"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="13"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D12" s="13">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="13"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D13" s="8">
         <v>41974</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E13" s="8">
         <v>41975</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F13" s="8">
         <v>41976</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G13" s="8">
         <v>41977</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H13" s="8">
         <v>41978</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I13" s="8">
         <v>41979</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J13" s="8">
         <v>41980</v>
       </c>
-      <c r="K12" s="10"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="18"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="18"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="13"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D14" s="13">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="13"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D15" s="8">
         <v>41981</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E15" s="8">
         <v>41982</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F15" s="8">
         <v>41983</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G15" s="8">
         <v>41984</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H15" s="8">
         <v>41985</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I15" s="8">
         <v>41986</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J15" s="8">
         <v>41987</v>
       </c>
-      <c r="K14" s="10"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="18"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="18"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="13"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D16" s="13">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="13"/>
+    </row>
+    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D17" s="8">
         <v>41988</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E17" s="8">
         <v>41989</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F17" s="8">
         <v>41990</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G17" s="8">
         <v>41991</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H17" s="8">
         <v>41992</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I17" s="8">
         <v>41993</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J17" s="8">
         <v>41994</v>
       </c>
-      <c r="K16" s="10"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="18"/>
-    </row>
-    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="18"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="13"/>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D18" s="13">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="13"/>
+    </row>
+    <row r="19" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D19" s="8">
         <v>41995</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E19" s="8">
         <v>41996</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F19" s="8">
         <v>41997</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G19" s="8">
         <v>41998</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H19" s="8">
         <v>41999</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I19" s="8">
         <v>42000</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J19" s="8">
         <v>42001</v>
       </c>
-      <c r="K18" s="10"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="18"/>
-    </row>
-    <row r="19" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="18"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="13"/>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D20" s="13">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="13"/>
+    </row>
+    <row r="21" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D21" s="8">
         <v>42002</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E21" s="8">
         <v>42003</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F21" s="8">
         <v>42004</v>
       </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="18"/>
-    </row>
-    <row r="21" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13">
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="13"/>
+    </row>
+    <row r="22" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8">
         <v>42005</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H22" s="8">
         <v>42006</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I22" s="8">
         <v>42007</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J22" s="8">
         <v>42008</v>
       </c>
-      <c r="K21" s="1"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="18" t="s">
+      <c r="K22" s="18"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="1"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="18"/>
-    </row>
     <row r="23" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D23" s="13">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="18"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="13"/>
+    </row>
+    <row r="24" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D24" s="8">
         <v>42009</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E24" s="8">
         <v>42010</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F24" s="8">
         <v>42011</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G24" s="8">
         <v>42012</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H24" s="8">
         <v>42013</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I24" s="8">
         <v>42014</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J24" s="8">
         <v>42015</v>
       </c>
-      <c r="K23" s="1"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="18"/>
-    </row>
-    <row r="24" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="1"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="13"/>
     </row>
     <row r="25" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D25" s="13">
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="18"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="13"/>
+    </row>
+    <row r="26" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D26" s="8">
         <v>42016</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E26" s="8">
         <v>42017</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F26" s="8">
         <v>42018</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G26" s="8">
         <v>42019</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H26" s="8">
         <v>42020</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I26" s="8">
         <v>42021</v>
       </c>
-      <c r="J25" s="13">
+      <c r="J26" s="8">
         <v>42022</v>
       </c>
-      <c r="K25" s="1"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="18"/>
-    </row>
-    <row r="26" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="1"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="13"/>
     </row>
     <row r="27" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D27" s="13">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="18"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="13"/>
+    </row>
+    <row r="28" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D28" s="8">
         <v>42023</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E28" s="8">
         <v>42024</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F28" s="8">
         <v>42025</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G28" s="8">
         <v>42026</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H28" s="8">
         <v>42027</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I28" s="8">
         <v>42028</v>
       </c>
-      <c r="J27" s="13">
+      <c r="J28" s="8">
         <v>42029</v>
       </c>
-      <c r="K27" s="1"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="18" t="s">
+      <c r="K28" s="18"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="1"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="18"/>
-    </row>
     <row r="29" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D29" s="13">
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="18"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="13"/>
+    </row>
+    <row r="30" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D30" s="8">
         <v>42030</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E30" s="8">
         <v>42031</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F30" s="8">
         <v>42032</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G30" s="8">
         <v>42033</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H30" s="8">
         <v>42034</v>
       </c>
-      <c r="I29" s="13">
+      <c r="I30" s="8">
         <v>42035</v>
       </c>
-      <c r="J29" s="13">
+      <c r="J30" s="8">
         <v>42036</v>
       </c>
-      <c r="K29" s="1"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="18"/>
-    </row>
-    <row r="30" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="1"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="13"/>
     </row>
     <row r="31" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D31" s="13">
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="18"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="13"/>
+    </row>
+    <row r="32" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D32" s="8">
         <v>42037</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E32" s="8">
         <v>42038</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F32" s="8">
         <v>42039</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G32" s="8">
         <v>42040</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H32" s="8">
         <v>42041</v>
       </c>
-      <c r="I31" s="13">
+      <c r="I32" s="8">
         <v>42042</v>
       </c>
-      <c r="J31" s="13">
+      <c r="J32" s="8">
         <v>42043</v>
       </c>
-      <c r="K31" s="1"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="18"/>
-    </row>
-    <row r="32" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="1"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="13"/>
     </row>
     <row r="33" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D33" s="13">
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="18"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="13"/>
+    </row>
+    <row r="34" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D34" s="8">
         <v>42044</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E34" s="8">
         <v>42045</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F34" s="8">
         <v>42046</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G34" s="8">
         <v>42047</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H34" s="8">
         <v>42048</v>
       </c>
-      <c r="I33" s="13">
+      <c r="I34" s="8">
         <v>42049</v>
       </c>
-      <c r="J33" s="13">
+      <c r="J34" s="8">
         <v>42050</v>
       </c>
-      <c r="K33" s="1"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="18"/>
-    </row>
-    <row r="34" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="1"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="13"/>
     </row>
     <row r="35" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D35" s="13">
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="18"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="13"/>
+    </row>
+    <row r="36" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D36" s="8">
         <v>42051</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E36" s="8">
         <v>42052</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F36" s="8">
         <v>42053</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G36" s="8">
         <v>42054</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H36" s="8">
         <v>42055</v>
       </c>
-      <c r="I35" s="13">
+      <c r="I36" s="8">
         <v>42056</v>
       </c>
-      <c r="J35" s="13">
+      <c r="J36" s="8">
         <v>42057</v>
       </c>
-      <c r="K35" s="1"/>
+      <c r="K36" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="N2:N20"/>
-    <mergeCell ref="N21:N26"/>
-    <mergeCell ref="N27:N34"/>
-    <mergeCell ref="L2:L9"/>
-    <mergeCell ref="L10:L20"/>
+    <mergeCell ref="N2:N21"/>
+    <mergeCell ref="N22:N27"/>
+    <mergeCell ref="N28:N35"/>
+    <mergeCell ref="L2:L10"/>
+    <mergeCell ref="L11:L21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
